--- a/data_analytics.xlsx
+++ b/data_analytics.xlsx
@@ -1,66 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Average" sheetId="1" r:id="rId1"/>
+    <sheet name="Average" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CorrelationMatrix" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>overall_satisfaction</t>
-  </si>
-  <si>
-    <t>food_satisfaction</t>
-  </si>
-  <si>
-    <t>price_satisfaction</t>
-  </si>
-  <si>
-    <t>ambience_satisfaction</t>
-  </si>
-  <si>
-    <t>service_satisfaction</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF6347"/>
+        <bgColor rgb="00FF6347"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006495ED"/>
+        <bgColor rgb="006495ED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0C4DE"/>
+        <bgColor rgb="00B0C4DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF4500"/>
+        <bgColor rgb="00FF4500"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -72,35 +83,99 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,54 +463,328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>42.5</v>
-      </c>
-      <c r="B2">
-        <v>3.25</v>
-      </c>
-      <c r="C2">
-        <v>3.25</v>
-      </c>
-      <c r="D2">
-        <v>3.25</v>
-      </c>
-      <c r="E2">
-        <v>2.75</v>
-      </c>
-      <c r="F2">
-        <v>2.75</v>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>overall_satisfaction</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>food_satisfaction</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>price_satisfaction</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ambience_satisfaction</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>service_satisfaction</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>overall_satisfaction</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>food_satisfaction</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>price_satisfaction</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ambience_satisfaction</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>service_satisfaction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>overall_satisfaction</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>food_satisfaction</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>price_satisfaction</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ambience_satisfaction</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>service_satisfaction</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>相関係数-0.3以上-0.5未満で弱い負の相関</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>相関係数-0.5以上-0.7未満で普通の負の相関</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>相関係数-0.7以上で強い負の相関</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>相関係数0.7以上で強い正の相関</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>相関係数0.5以上0.7未満で普通の正の相関</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>相関係数0.3以上0.5未満で弱い正の相関</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data_analytics.xlsx
+++ b/data_analytics.xlsx
@@ -39,20 +39,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF6347"/>
-        <bgColor rgb="00FF6347"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="006495ED"/>
         <bgColor rgb="006495ED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="00FF4500"/>
+        <bgColor rgb="00FF4500"/>
       </patternFill>
     </fill>
     <fill>
@@ -69,8 +63,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF4500"/>
-        <bgColor rgb="00FF4500"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF6347"/>
+        <bgColor rgb="00FF6347"/>
       </patternFill>
     </fill>
   </fills>
@@ -601,19 +601,19 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="2" t="n">
         <v>-0.75</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="2" t="n">
         <v>-0.75</v>
       </c>
     </row>
@@ -623,7 +623,7 @@
           <t>overall_satisfaction</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="C3" t="n">
@@ -635,10 +635,10 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="G3" s="4" t="n">
+      <c r="F3" s="3" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G3" s="3" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -648,7 +648,7 @@
           <t>food_satisfaction</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="C4" t="n">
@@ -660,10 +660,10 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="G4" s="4" t="n">
+      <c r="F4" s="3" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G4" s="3" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -673,7 +673,7 @@
           <t>price_satisfaction</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="C5" t="n">
@@ -685,10 +685,10 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="G5" s="4" t="n">
+      <c r="F5" s="3" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G5" s="3" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
           <t>ambience_satisfaction</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="2" t="n">
         <v>-0.75</v>
       </c>
-      <c r="C6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E6" s="4" t="n">
+      <c r="C6" s="3" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>0.61</v>
       </c>
       <c r="F6" t="n">
@@ -723,16 +723,16 @@
           <t>service_satisfaction</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="2" t="n">
         <v>-0.75</v>
       </c>
-      <c r="C7" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E7" s="4" t="n">
+      <c r="C7" s="3" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E7" s="3" t="n">
         <v>0.61</v>
       </c>
       <c r="F7" t="n">
@@ -743,42 +743,42 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>相関係数-0.3以上-0.5未満で弱い負の相関</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>相関係数-0.5以上-0.7未満で普通の負の相関</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>相関係数-0.7以上で強い負の相関</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>相関係数0.7以上で強い正の相関</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>相関係数0.5以上0.7未満で普通の正の相関</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="7" t="inlineStr">
         <is>
           <t>相関係数0.3以上0.5未満で弱い正の相関</t>
         </is>

--- a/data_analytics.xlsx
+++ b/data_analytics.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet name="Average" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="CorrelationMatrix" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="料理の満足度_vs_Overall_Satisfaction" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="価格の満足度_vs_Overall_Satisfaction" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="店の雰囲気_vs_Overall_Satisfaction" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="接客態度_vs_Overall_Satisfaction" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -179,6 +183,126 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -787,4 +911,80 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data_analytics.xlsx
+++ b/data_analytics.xlsx
@@ -43,18 +43,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006495ED"/>
-        <bgColor rgb="006495ED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF4500"/>
-        <bgColor rgb="00FF4500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00B0C4DE"/>
         <bgColor rgb="00B0C4DE"/>
       </patternFill>
@@ -67,8 +55,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FF4500"/>
+        <bgColor rgb="00FF4500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FF0000"/>
         <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006495ED"/>
+        <bgColor rgb="006495ED"/>
       </patternFill>
     </fill>
     <fill>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="3">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.6</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="6">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.2</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -726,19 +726,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.11</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>-0.75</v>
+        <v>-0.34</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="3">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -756,14 +756,14 @@
       <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="n">
+      <c r="E3" s="4" t="n">
         <v>0.61</v>
       </c>
-      <c r="G3" s="3" t="n">
-        <v>0.61</v>
+      <c r="F3" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -781,14 +781,14 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>0.61</v>
       </c>
-      <c r="G4" s="3" t="n">
-        <v>0.61</v>
+      <c r="F4" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="5">
@@ -798,22 +798,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
+        <v>-0.11</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.61</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>0.61</v>
+      <c r="F5" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="6">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>0.61</v>
+        <v>-0.34</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.03</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="n">
-        <v>1</v>
+      <c r="G6" s="5" t="n">
+        <v>0.96</v>
       </c>
     </row>
     <row r="7">
@@ -847,55 +847,55 @@
           <t>service_satisfaction</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+      <c r="B7" s="3" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.96</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>相関係数-0.3以上-0.5未満で弱い負の相関</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>相関係数-0.5以上-0.7未満で普通の負の相関</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>相関係数-0.7以上で強い負の相関</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="6" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>相関係数0.7以上で強い正の相関</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>相関係数0.5以上0.7未満で普通の正の相関</t>
         </is>

--- a/data_analytics.xlsx
+++ b/data_analytics.xlsx
@@ -34,7 +34,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -43,8 +43,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B0C4DE"/>
-        <bgColor rgb="00B0C4DE"/>
+        <fgColor rgb="00E0F8FF"/>
+        <bgColor rgb="00E0F8FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -73,8 +73,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF6347"/>
-        <bgColor rgb="00FF6347"/>
+        <fgColor rgb="00FF8282"/>
+        <bgColor rgb="00FF8282"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6B6"/>
+        <bgColor rgb="00FFB6B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEBEB"/>
+        <bgColor rgb="00FFEBEB"/>
       </patternFill>
     </fill>
   </fills>
@@ -96,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -107,6 +119,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -869,40 +883,40 @@
     <row r="9">
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>相関係数-0.3以上-0.5未満で弱い負の相関</t>
+          <t>相関係数-0.3以下-0.5より大きいで弱い負の相関</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>相関係数-0.5以上-0.7未満で普通の負の相関</t>
+          <t>相関係数-0.5以下-0.7より大きいで普通の負の相関</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>相関係数-0.7以上で強い負の相関</t>
+          <t>相関係数-0.7以下で強い負の相関</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B12" s="7" t="inlineStr">
         <is>
           <t>相関係数0.7以上で強い正の相関</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>相関係数0.5以上0.7未満で普通の正の相関</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B14" s="9" t="inlineStr">
         <is>
           <t>相関係数0.3以上0.5未満で弱い正の相関</t>
         </is>

--- a/data_analytics.xlsx
+++ b/data_analytics.xlsx
@@ -34,7 +34,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -55,20 +55,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF4500"/>
-        <bgColor rgb="00FF4500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006495ED"/>
-        <bgColor rgb="006495ED"/>
+        <fgColor rgb="00FFB6B6"/>
+        <bgColor rgb="00FFB6B6"/>
       </patternFill>
     </fill>
     <fill>
@@ -79,8 +67,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFB6B6"/>
-        <bgColor rgb="00FFB6B6"/>
+        <fgColor rgb="006495ED"/>
+        <bgColor rgb="006495ED"/>
       </patternFill>
     </fill>
     <fill>
@@ -108,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -119,8 +107,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -902,21 +888,21 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="7" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>相関係数0.7以上で強い正の相関</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="8" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>相関係数0.5以上0.7未満で普通の正の相関</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="9" t="inlineStr">
+      <c r="B14" s="7" t="inlineStr">
         <is>
           <t>相関係数0.3以上0.5未満で弱い正の相関</t>
         </is>
